--- a/Source/locationdata.xlsx
+++ b/Source/locationdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c2227180cd231e55/Github/pages/timholthuijsen.github.io/Source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E987E125-5D10-490D-A535-B88C5A1A99AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_E5388B7BD389B8BC7DB466563351E131A16E8CF1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3108" yWindow="2880" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="4392" yWindow="1284" windowWidth="17280" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="map" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgemJHdDeZjuGj+yPAdc2nuPKSBIg=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mjR8DKj5K0GMrBpPKbxmTT4FPnYnA=="/>
     </ext>
   </extLst>
 </workbook>
@@ -48,14 +48,14 @@
   </commentList>
   <extLst>
     <ext xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mjqS7FuFZcoqJi0EbZ8WrE+DX02cQ=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mieIWBmgJULAXFq+WTwthK/wGrR1w=="/>
     </ext>
   </extLst>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
   <si>
     <t>Tijdstempel</t>
   </si>
@@ -130,16 +130,59 @@
   </si>
   <si>
     <t>Lorenz Veithen</t>
+  </si>
+  <si>
+    <t>2022/03/08 9:03:00 a.m. EET</t>
+  </si>
+  <si>
+    <t>Amelie Finan</t>
+  </si>
+  <si>
+    <t>2022/03/08 9:23:00 a.m. EET</t>
+  </si>
+  <si>
+    <t>Sam de Wringer</t>
+  </si>
+  <si>
+    <t>2022/03/08 10:20:00 a.m. EET</t>
+  </si>
+  <si>
+    <t>Garnet John</t>
+  </si>
+  <si>
+    <t>2022/03/08 12:06 p.m EET</t>
+  </si>
+  <si>
+    <t>Kristián Cuervo</t>
+  </si>
+  <si>
+    <t>Julian Rothenbuchner</t>
+  </si>
+  <si>
+    <t>2022/03/08 13:31 p.m. EET</t>
+  </si>
+  <si>
+    <t>James Kingsnorth</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202124"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -154,7 +197,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF333333"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -172,7 +215,14 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -184,12 +234,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -407,7 +465,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -462,165 +522,252 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>51.076481731523003</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>13.728794908027799</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>48.202716984020697</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>16.337829252307699</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>48.1827072095248</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>16.4154473403586</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>52.092875999999997</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>5.1044799999999997</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>59.329300000000003</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>18.0686</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="C9" s="3">
+        <v>52.070500000000003</v>
+      </c>
+      <c r="D9" s="3">
+        <v>4.3007</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>51.987322051842803</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>4.3464926231662204</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>26.205912999999999</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>78.210032999999996</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>52.361797000000003</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="2">
         <v>4.9547569999999999</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="2" t="s">
+      <c r="A13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="2">
         <v>4.9547569999999999</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>52.014279999999999</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>4.3315400000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="5">
+        <v>48.2333</v>
+      </c>
+      <c r="D15" s="5">
+        <v>16.316700000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="5">
+        <v>52.354059533238498</v>
+      </c>
+      <c r="D16" s="6">
+        <v>4.8842345983269499</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="5">
+        <v>47.431482265075999</v>
+      </c>
+      <c r="D17" s="5">
+        <v>19.095643207523</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="7">
+        <v>52.002654999999997</v>
+      </c>
+      <c r="D18" s="7">
+        <v>4.3754249999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="5">
+        <v>52.010258</v>
+      </c>
+      <c r="D19" s="6">
+        <v>4.3508145000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="8">
+        <v>52.526434999999999</v>
+      </c>
+      <c r="D20" s="5">
+        <v>4.9613870000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
